--- a/Files/Vaccine_September 18, 2009.xlsx
+++ b/Files/Vaccine_September 18, 2009.xlsx
@@ -95,7 +95,7 @@
     <t xml:space="preserve">Kinrix</t>
   </si>
   <si>
-    <t xml:space="preserve">10 pack - 1 dose vials 5 pack - 1 dose T-L syringes </t>
+    <t xml:space="preserve">10 pack - 1 dose vials </t>
   </si>
   <si>
     <t xml:space="preserve">$32.25</t>
@@ -104,6 +104,9 @@
     <t xml:space="preserve">$48.00</t>
   </si>
   <si>
+    <t xml:space="preserve">5 pack - 1 dose T-L syringes </t>
+  </si>
+  <si>
     <t xml:space="preserve">DTaP-Hep B-IPV </t>
   </si>
   <si>
@@ -131,6 +134,9 @@
     <t xml:space="preserve">$72.91</t>
   </si>
   <si>
+    <t xml:space="preserve">DTaP-Hib </t>
+  </si>
+  <si>
     <t xml:space="preserve">TriHIBit</t>
   </si>
   <si>
@@ -161,7 +167,7 @@
     <t xml:space="preserve">$27.62</t>
   </si>
   <si>
-    <t xml:space="preserve">Hepatitis B </t>
+    <t xml:space="preserve">Hepatitis B-Hib </t>
   </si>
   <si>
     <t xml:space="preserve">COMVAX</t>
@@ -212,7 +218,7 @@
     <t xml:space="preserve">5 pack - 1 dose T-L syringes, No Needle</t>
   </si>
   <si>
-    <t xml:space="preserve">Hepatitis BPediatricAdolescent</t>
+    <t xml:space="preserve">Hepatitis B Pediatric/Adolescent</t>
   </si>
   <si>
     <t xml:space="preserve">ENGERIX B</t>
@@ -224,7 +230,7 @@
     <t xml:space="preserve">$21.37</t>
   </si>
   <si>
-    <t xml:space="preserve">Hepatitis B PediatricAdolescent</t>
+    <t xml:space="preserve">Hepatitis B  Pediatric/Adolescent</t>
   </si>
   <si>
     <t xml:space="preserve">RECOMBIVAX HB</t>
@@ -308,7 +314,7 @@
     <t xml:space="preserve">$48.31</t>
   </si>
   <si>
-    <t xml:space="preserve">Pneumococcal7-valent (Pediatric)</t>
+    <t xml:space="preserve">Pneumococcal 7-valent (Pediatric)</t>
   </si>
   <si>
     <t xml:space="preserve">Prevnar</t>
@@ -326,7 +332,7 @@
     <t xml:space="preserve">Wyeth/Lederle</t>
   </si>
   <si>
-    <t xml:space="preserve">Pneumococcal Polysaccharide(23 Valent)</t>
+    <t xml:space="preserve">Pneumococcal Polysaccharide (23 Valent)</t>
   </si>
   <si>
     <t xml:space="preserve">Pneumovax</t>
@@ -461,9 +467,6 @@
     <t xml:space="preserve">$34.065</t>
   </si>
   <si>
-    <t xml:space="preserve">Pneumococcal Polysaccharide (23 Valent)</t>
-  </si>
-  <si>
     <t xml:space="preserve">1 pack - 5 dose vials</t>
   </si>
   <si>
@@ -477,9 +480,6 @@
   </si>
   <si>
     <t xml:space="preserve">$21.472</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tetanus  DiphtheriaToxoids </t>
   </si>
   <si>
     <t xml:space="preserve">Tetanus  Diphtheria Toxoids
@@ -531,7 +531,7 @@
     <t xml:space="preserve">$161.50</t>
   </si>
   <si>
-    <t xml:space="preserve">Influenza  (Age 6 months and older)</t>
+    <t xml:space="preserve">Influenza   (Age 6 months and older)</t>
   </si>
   <si>
     <t xml:space="preserve">Fluzone</t>
@@ -543,7 +543,7 @@
     <t xml:space="preserve">$9.72</t>
   </si>
   <si>
-    <t xml:space="preserve">Influenza (Age 6-35 months)</t>
+    <t xml:space="preserve">Influenza  (Age 6-35 months)</t>
   </si>
   <si>
     <t xml:space="preserve">Fluzone
@@ -560,7 +560,7 @@
     <t xml:space="preserve">$13.16</t>
   </si>
   <si>
-    <t xml:space="preserve">Influenza (Age 36 months and older)</t>
+    <t xml:space="preserve">Influenza  (Age 36 months and older)</t>
   </si>
   <si>
     <t xml:space="preserve">$10.31</t>
@@ -596,7 +596,7 @@
     <t xml:space="preserve">$11.25</t>
   </si>
   <si>
-    <t xml:space="preserve">Influenza Live, Intranasal (Age 2-49 years)</t>
+    <t xml:space="preserve">Influenza  Live, Intranasal (Age 2-49 years)</t>
   </si>
   <si>
     <t xml:space="preserve">FluMist
@@ -986,7 +986,7 @@
         <v>11</v>
       </c>
       <c r="D7" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E7" t="s">
         <v>27</v>
@@ -1006,10 +1006,10 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B8" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C8" t="s">
         <v>11</v>
@@ -1018,10 +1018,10 @@
         <v>12</v>
       </c>
       <c r="E8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F8" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G8" s="1">
         <v>40268</v>
@@ -1035,10 +1035,10 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B9" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C9" t="s">
         <v>11</v>
@@ -1047,10 +1047,10 @@
         <v>22</v>
       </c>
       <c r="E9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F9" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G9" s="1">
         <v>40268</v>
@@ -1064,22 +1064,22 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B10" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C10" t="s">
         <v>11</v>
       </c>
       <c r="D10" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E10" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F10" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G10" s="1">
         <v>40268</v>
@@ -1093,22 +1093,22 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>9</v>
+        <v>39</v>
       </c>
       <c r="B11" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C11" t="s">
         <v>11</v>
       </c>
       <c r="D11" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E11" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F11" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G11" s="1">
         <v>40268</v>
@@ -1122,22 +1122,22 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B12" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C12" t="s">
         <v>11</v>
       </c>
       <c r="D12" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F12" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G12" s="1">
         <v>40268</v>
@@ -1151,22 +1151,22 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B13" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C13" t="s">
         <v>11</v>
       </c>
       <c r="D13" t="s">
+        <v>48</v>
+      </c>
+      <c r="E13" t="s">
         <v>46</v>
       </c>
-      <c r="E13" t="s">
-        <v>44</v>
-      </c>
       <c r="F13" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G13" s="1">
         <v>40268</v>
@@ -1180,10 +1180,10 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B14" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C14" t="s">
         <v>11</v>
@@ -1192,16 +1192,16 @@
         <v>12</v>
       </c>
       <c r="E14" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F14" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G14" s="1">
         <v>40268</v>
       </c>
       <c r="H14" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="I14" t="s">
         <v>11</v>
@@ -1209,28 +1209,28 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B15" t="s">
+        <v>56</v>
+      </c>
+      <c r="C15" t="s">
+        <v>11</v>
+      </c>
+      <c r="D15" t="s">
+        <v>12</v>
+      </c>
+      <c r="E15" t="s">
+        <v>57</v>
+      </c>
+      <c r="F15" t="s">
+        <v>58</v>
+      </c>
+      <c r="G15" s="1">
+        <v>40268</v>
+      </c>
+      <c r="H15" t="s">
         <v>54</v>
-      </c>
-      <c r="C15" t="s">
-        <v>11</v>
-      </c>
-      <c r="D15" t="s">
-        <v>12</v>
-      </c>
-      <c r="E15" t="s">
-        <v>55</v>
-      </c>
-      <c r="F15" t="s">
-        <v>56</v>
-      </c>
-      <c r="G15" s="1">
-        <v>40268</v>
-      </c>
-      <c r="H15" t="s">
-        <v>52</v>
       </c>
       <c r="I15" t="s">
         <v>11</v>
@@ -1238,10 +1238,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B16" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C16" t="s">
         <v>11</v>
@@ -1250,10 +1250,10 @@
         <v>12</v>
       </c>
       <c r="E16" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F16" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="G16" s="1">
         <v>40268</v>
@@ -1267,10 +1267,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B17" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C17" t="s">
         <v>11</v>
@@ -1279,10 +1279,10 @@
         <v>22</v>
       </c>
       <c r="E17" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F17" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="G17" s="1">
         <v>40268</v>
@@ -1296,10 +1296,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B18" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C18" t="s">
         <v>11</v>
@@ -1308,10 +1308,10 @@
         <v>12</v>
       </c>
       <c r="E18" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F18" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="G18" s="1">
         <v>40268</v>
@@ -1325,22 +1325,22 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B19" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C19" t="s">
         <v>11</v>
       </c>
       <c r="D19" t="s">
+        <v>66</v>
+      </c>
+      <c r="E19" t="s">
         <v>64</v>
       </c>
-      <c r="E19" t="s">
-        <v>62</v>
-      </c>
       <c r="F19" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="G19" s="1">
         <v>40268</v>
@@ -1354,10 +1354,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B20" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C20" t="s">
         <v>11</v>
@@ -1366,10 +1366,10 @@
         <v>12</v>
       </c>
       <c r="E20" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F20" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G20" s="1">
         <v>40268</v>
@@ -1383,22 +1383,22 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B21" t="s">
+        <v>68</v>
+      </c>
+      <c r="C21" t="s">
+        <v>11</v>
+      </c>
+      <c r="D21" t="s">
         <v>66</v>
       </c>
-      <c r="C21" t="s">
-        <v>11</v>
-      </c>
-      <c r="D21" t="s">
-        <v>64</v>
-      </c>
       <c r="E21" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F21" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G21" s="1">
         <v>40268</v>
@@ -1412,10 +1412,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B22" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C22" t="s">
         <v>11</v>
@@ -1424,16 +1424,16 @@
         <v>12</v>
       </c>
       <c r="E22" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F22" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G22" s="1">
         <v>40268</v>
       </c>
       <c r="H22" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="I22" t="s">
         <v>11</v>
@@ -1441,10 +1441,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B23" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C23" t="s">
         <v>11</v>
@@ -1453,16 +1453,16 @@
         <v>12</v>
       </c>
       <c r="E23" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F23" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="G23" s="1">
         <v>40268</v>
       </c>
       <c r="H23" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="I23" t="s">
         <v>11</v>
@@ -1470,22 +1470,22 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B24" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C24" t="s">
         <v>11</v>
       </c>
       <c r="D24" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E24" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F24" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="G24" s="1">
         <v>40268</v>
@@ -1499,22 +1499,22 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B25" t="s">
+        <v>82</v>
+      </c>
+      <c r="C25" t="s">
+        <v>11</v>
+      </c>
+      <c r="D25" t="s">
+        <v>12</v>
+      </c>
+      <c r="E25" t="s">
         <v>80</v>
       </c>
-      <c r="C25" t="s">
-        <v>11</v>
-      </c>
-      <c r="D25" t="s">
-        <v>12</v>
-      </c>
-      <c r="E25" t="s">
-        <v>78</v>
-      </c>
       <c r="F25" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="G25" s="1">
         <v>40268</v>
@@ -1528,10 +1528,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B26" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C26" t="s">
         <v>11</v>
@@ -1540,16 +1540,16 @@
         <v>12</v>
       </c>
       <c r="E26" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F26" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="G26" s="1">
         <v>40268</v>
       </c>
       <c r="H26" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="I26" t="s">
         <v>11</v>
@@ -1557,10 +1557,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B27" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C27" t="s">
         <v>11</v>
@@ -1569,16 +1569,16 @@
         <v>12</v>
       </c>
       <c r="E27" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F27" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G27" s="1">
         <v>40268</v>
       </c>
       <c r="H27" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="I27" t="s">
         <v>11</v>
@@ -1586,22 +1586,22 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B28" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C28" t="s">
         <v>11</v>
       </c>
       <c r="D28" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E28" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F28" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="G28" s="1">
         <v>40268</v>
@@ -1615,10 +1615,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B29" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C29" t="s">
         <v>11</v>
@@ -1627,16 +1627,16 @@
         <v>12</v>
       </c>
       <c r="E29" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F29" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="G29" s="1">
         <v>40268</v>
       </c>
       <c r="H29" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="I29" t="s">
         <v>11</v>
@@ -1644,28 +1644,28 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B30" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C30" t="s">
         <v>11</v>
       </c>
       <c r="D30" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E30" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="F30" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="G30" s="1">
         <v>40268</v>
       </c>
       <c r="H30" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="I30" t="s">
         <v>11</v>
@@ -1673,10 +1673,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B31" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C31" t="s">
         <v>11</v>
@@ -1685,16 +1685,16 @@
         <v>12</v>
       </c>
       <c r="E31" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="F31" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="G31" s="1">
         <v>40268</v>
       </c>
       <c r="H31" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="I31" t="s">
         <v>11</v>
@@ -1702,28 +1702,28 @@
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B32" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C32" t="s">
         <v>11</v>
       </c>
       <c r="D32" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E32" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F32" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="G32" s="1">
         <v>40268</v>
       </c>
       <c r="H32" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="I32" t="s">
         <v>11</v>
@@ -1731,10 +1731,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B33" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C33" t="s">
         <v>11</v>
@@ -1743,10 +1743,10 @@
         <v>12</v>
       </c>
       <c r="E33" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="F33" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="G33" s="1">
         <v>40268</v>
@@ -1760,22 +1760,22 @@
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B34" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C34" t="s">
         <v>11</v>
       </c>
       <c r="D34" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E34" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="F34" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="G34" s="1">
         <v>40268</v>
@@ -1789,10 +1789,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B35" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C35" t="s">
         <v>11</v>
@@ -1801,10 +1801,10 @@
         <v>12</v>
       </c>
       <c r="E35" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="F35" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="G35" s="1">
         <v>40268</v>
@@ -1818,10 +1818,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B36" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C36" t="s">
         <v>11</v>
@@ -1830,7 +1830,7 @@
         <v>12</v>
       </c>
       <c r="E36" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="F36" t="s">
         <v>11</v>
@@ -1839,7 +1839,7 @@
         <v>40268</v>
       </c>
       <c r="H36" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="I36" t="s">
         <v>11</v>
@@ -1847,10 +1847,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B37" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C37" t="s">
         <v>11</v>
@@ -1859,10 +1859,10 @@
         <v>12</v>
       </c>
       <c r="E37" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="F37" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="G37" s="1">
         <v>40268</v>
@@ -1876,22 +1876,22 @@
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B38" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C38" t="s">
         <v>11</v>
       </c>
       <c r="D38" t="s">
+        <v>129</v>
+      </c>
+      <c r="E38" t="s">
         <v>127</v>
       </c>
-      <c r="E38" t="s">
-        <v>125</v>
-      </c>
       <c r="F38" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="G38" s="1">
         <v>40268</v>
@@ -1905,10 +1905,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B39" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C39" t="s">
         <v>11</v>
@@ -1917,10 +1917,10 @@
         <v>12</v>
       </c>
       <c r="E39" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="F39" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="G39" s="1">
         <v>40268</v>
@@ -1934,22 +1934,22 @@
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B40" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C40" t="s">
         <v>11</v>
       </c>
       <c r="D40" t="s">
+        <v>133</v>
+      </c>
+      <c r="E40" t="s">
         <v>131</v>
       </c>
-      <c r="E40" t="s">
-        <v>129</v>
-      </c>
       <c r="F40" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="G40" s="1">
         <v>40268</v>
@@ -1963,10 +1963,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B41" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="C41" t="s">
         <v>11</v>
@@ -1975,16 +1975,16 @@
         <v>12</v>
       </c>
       <c r="E41" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="F41" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="G41" s="1">
         <v>40268</v>
       </c>
       <c r="H41" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="I41" t="s">
         <v>11</v>
@@ -2037,10 +2037,10 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C2" t="s">
         <v>11</v>
@@ -2049,10 +2049,10 @@
         <v>12</v>
       </c>
       <c r="E2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="F2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="G2" s="1">
         <v>40359</v>
@@ -2066,22 +2066,22 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C3" t="s">
         <v>11</v>
       </c>
       <c r="D3" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E3" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="F3" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="G3" s="1">
         <v>40359</v>
@@ -2095,10 +2095,10 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B4" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C4" t="s">
         <v>11</v>
@@ -2107,10 +2107,10 @@
         <v>12</v>
       </c>
       <c r="E4" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F4" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="G4" s="1">
         <v>40359</v>
@@ -2124,22 +2124,22 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B5" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C5" t="s">
         <v>11</v>
       </c>
       <c r="D5" t="s">
+        <v>66</v>
+      </c>
+      <c r="E5" t="s">
         <v>64</v>
       </c>
-      <c r="E5" t="s">
-        <v>62</v>
-      </c>
       <c r="F5" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="G5" s="1">
         <v>40359</v>
@@ -2153,10 +2153,10 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B6" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="C6" t="s">
         <v>11</v>
@@ -2165,10 +2165,10 @@
         <v>12</v>
       </c>
       <c r="E6" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="F6" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="G6" s="1">
         <v>40359</v>
@@ -2182,22 +2182,22 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="C7" t="s">
         <v>11</v>
       </c>
       <c r="D7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="F7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="G7" s="1">
         <v>40359</v>
@@ -2211,10 +2211,10 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B8" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C8" t="s">
         <v>11</v>
@@ -2223,16 +2223,16 @@
         <v>12</v>
       </c>
       <c r="E8" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="F8" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="G8" s="1">
         <v>40359</v>
       </c>
       <c r="H8" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="I8" t="s">
         <v>11</v>
@@ -2240,10 +2240,10 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B9" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C9" t="s">
         <v>11</v>
@@ -2252,16 +2252,16 @@
         <v>12</v>
       </c>
       <c r="E9" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="F9" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="G9" s="1">
         <v>40359</v>
       </c>
       <c r="H9" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="I9" t="s">
         <v>11</v>
@@ -2269,28 +2269,28 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>148</v>
+        <v>105</v>
       </c>
       <c r="B10" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C10" t="s">
         <v>11</v>
       </c>
       <c r="D10" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E10" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="F10" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="G10" s="1">
         <v>40359</v>
       </c>
       <c r="H10" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="I10" t="s">
         <v>11</v>
@@ -2298,28 +2298,28 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>148</v>
+        <v>105</v>
       </c>
       <c r="B11" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C11" t="s">
         <v>11</v>
       </c>
       <c r="D11" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E11" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F11" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="G11" s="1">
         <v>40359</v>
       </c>
       <c r="H11" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="I11" t="s">
         <v>11</v>
@@ -2327,7 +2327,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>154</v>
+        <v>118</v>
       </c>
       <c r="B12" t="s">
         <v>155</v>
@@ -2356,7 +2356,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>154</v>
+        <v>118</v>
       </c>
       <c r="B13" t="s">
         <v>155</v>
@@ -2377,7 +2377,7 @@
         <v>40359</v>
       </c>
       <c r="H13" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="I13" t="s">
         <v>11</v>
@@ -2385,7 +2385,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B14" t="s">
         <v>158</v>
@@ -2400,7 +2400,7 @@
         <v>159</v>
       </c>
       <c r="F14" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="G14" s="1">
         <v>40359</v>
@@ -2414,7 +2414,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B15" t="s">
         <v>158</v>
@@ -2423,13 +2423,13 @@
         <v>11</v>
       </c>
       <c r="D15" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="E15" t="s">
         <v>159</v>
       </c>
       <c r="F15" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="G15" s="1">
         <v>40359</v>
@@ -2443,7 +2443,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B16" t="s">
         <v>160</v>
@@ -2458,7 +2458,7 @@
         <v>159</v>
       </c>
       <c r="F16" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="G16" s="1">
         <v>40359</v>
@@ -2472,7 +2472,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B17" t="s">
         <v>160</v>
@@ -2481,13 +2481,13 @@
         <v>11</v>
       </c>
       <c r="D17" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E17" t="s">
         <v>159</v>
       </c>
       <c r="F17" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="G17" s="1">
         <v>40359</v>
@@ -2504,7 +2504,7 @@
         <v>161</v>
       </c>
       <c r="B18" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="C18" t="s">
         <v>11</v>
@@ -2516,13 +2516,13 @@
         <v>162</v>
       </c>
       <c r="F18" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="G18" s="1">
         <v>40359</v>
       </c>
       <c r="H18" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="I18" t="s">
         <v>11</v>
@@ -2551,7 +2551,7 @@
         <v>40359</v>
       </c>
       <c r="H19" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="I19" t="s">
         <v>11</v>
@@ -2580,7 +2580,7 @@
         <v>40359</v>
       </c>
       <c r="H20" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="I20" t="s">
         <v>11</v>
@@ -2642,7 +2642,7 @@
         <v>11</v>
       </c>
       <c r="D2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E2" t="s">
         <v>173</v>
@@ -2758,13 +2758,13 @@
         <v>11</v>
       </c>
       <c r="D6" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E6" t="s">
         <v>186</v>
       </c>
       <c r="F6" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="G6" s="1">
         <v>40237</v>
@@ -2890,7 +2890,7 @@
         <v>11</v>
       </c>
       <c r="D2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E2" t="s">
         <v>199</v>
@@ -2977,13 +2977,13 @@
         <v>11</v>
       </c>
       <c r="D5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E5" t="s">
         <v>202</v>
       </c>
       <c r="F5" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="G5" s="1">
         <v>40237</v>
@@ -3093,7 +3093,7 @@
         <v>11</v>
       </c>
       <c r="D9" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E9" t="s">
         <v>208</v>
@@ -3151,7 +3151,7 @@
         <v>11</v>
       </c>
       <c r="D11" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E11" t="s">
         <v>215</v>

--- a/Files/Vaccine_September 18, 2009.xlsx
+++ b/Files/Vaccine_September 18, 2009.xlsx
@@ -482,8 +482,7 @@
     <t xml:space="preserve">$21.472</t>
   </si>
   <si>
-    <t xml:space="preserve">Tetanus  Diphtheria Toxoids
-Adsorbed for Adults No Preservative</t>
+    <t xml:space="preserve">Tetanus  Diphtheria Toxoids Adsorbed for Adults No Preservative</t>
   </si>
   <si>
     <t xml:space="preserve">$18.23</t>
@@ -546,9 +545,7 @@
     <t xml:space="preserve">Influenza  (Age 6-35 months)</t>
   </si>
   <si>
-    <t xml:space="preserve">Fluzone
-Pediatric dose
-No Preservative</t>
+    <t xml:space="preserve">Fluzone Pediatric dose No Preservative</t>
   </si>
   <si>
     <t xml:space="preserve">10 pack - 1 dose syringes</t>
@@ -599,8 +596,7 @@
     <t xml:space="preserve">Influenza  Live, Intranasal (Age 2-49 years)</t>
   </si>
   <si>
-    <t xml:space="preserve">FluMist
-No Preservative</t>
+    <t xml:space="preserve">FluMist No Preservative</t>
   </si>
   <si>
     <t xml:space="preserve">10 pack - 1 dose sprayers</t>
@@ -651,8 +647,7 @@
     <t xml:space="preserve">$10.50</t>
   </si>
   <si>
-    <t xml:space="preserve">Afluria
-No Preservative</t>
+    <t xml:space="preserve">Afluria No Preservative</t>
   </si>
   <si>
     <t xml:space="preserve">$7.00</t>
@@ -661,8 +656,7 @@
     <t xml:space="preserve">$8.00</t>
   </si>
   <si>
-    <t xml:space="preserve">CSL
-Biotherapies</t>
+    <t xml:space="preserve">CSL Biotherapies</t>
   </si>
   <si>
     <t xml:space="preserve">Afluria</t>
